--- a/data/example_data/ten_obs_wrong_levels.xlsx
+++ b/data/example_data/ten_obs_wrong_levels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katherinegoode/Desktop/carp-rf/shiny-app/app/data/example_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A597DA6-8D72-954A-B6A9-E9986DD48A4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AA70443-16A0-C645-95B0-037333EBF763}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{2C8DB93F-ED8E-D240-B60C-7DE03C7D2E86}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -574,7 +574,7 @@
         <v>8</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>-10</v>
       </c>
       <c r="E3">
         <v>25.3</v>
@@ -718,10 +718,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>2014</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D6">
         <v>24</v>
